--- a/Office/Excel/Microsoft Excel 2007/8th Marks Spreadsheet RK.xlsx
+++ b/Office/Excel/Microsoft Excel 2007/8th Marks Spreadsheet RK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Subject</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>Percentage</t>
   </si>
+  <si>
+    <t xml:space="preserve">Std. Deviation </t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,17 +104,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -120,6 +137,669 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25426882396959982"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hindi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Punjabi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mathematics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Social Studies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Science</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sanskrit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hindi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Punjabi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mathematics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Social Studies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Science</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sanskrit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="110173568"/>
+        <c:axId val="110183552"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="110173568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110183552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110183552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110173568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11522810304285944"/>
+          <c:y val="0.22266833655261059"/>
+          <c:w val="0.64081627296587973"/>
+          <c:h val="0.48990790960678621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hindi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Punjabi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mathematics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Social Studies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Science</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sanskrit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="110228608"/>
+        <c:axId val="110230144"/>
+        <c:axId val="110199232"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="110228608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110230144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110230144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110228608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="110199232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110230144"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hindi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Punjabi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mathematics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Social Studies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Science</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sanskrit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="138100096"/>
+        <c:axId val="138110080"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="138100096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138110080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138110080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138100096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165434</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15039</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25066</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140368</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595260</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,7 +1123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -451,7 +1131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,9 +1181,19 @@
         <v>84.857142857142861</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>STDEV(B2:B8)</f>
+        <v>9.4943592276075961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
